--- a/data/trans_camb/P1401-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1401-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.9622581696743768</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.2897417936199671</v>
+        <v>-0.2897417936199669</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.5038352367697202</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.564010637748843</v>
+        <v>-2.67707700272606</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.96483093317138</v>
+        <v>-1.914382553313589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.626270651795259</v>
+        <v>-3.09310962370854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.490476968220344</v>
+        <v>-4.636726233617602</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.36040119378436</v>
+        <v>-2.357666972700511</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.597356173723462</v>
+        <v>-2.64015527034555</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0</v>
+        <v>0.0007874857602160435</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.10995522395959</v>
+        <v>1.18495872255386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.991935777489486</v>
+        <v>2.399808146044179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2723810154751453</v>
+        <v>0.2032013909291037</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7778365859745282</v>
+        <v>0.7405800628634962</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.192585944861537</v>
+        <v>0.09646242791815121</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.7648492931761997</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.2303007789778781</v>
+        <v>-0.2303007789778779</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1748566900818293</v>
@@ -714,19 +714,19 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.9067739155577791</v>
+        <v>-0.846365090412675</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7824615905426909</v>
+        <v>-0.722704310635364</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8790756135823616</v>
+        <v>-0.8714570189402353</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7965314405307506</v>
+        <v>-0.7979364492104283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7992077416134203</v>
+        <v>-0.7880759991695762</v>
       </c>
     </row>
     <row r="9">
@@ -738,19 +738,19 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>3.000966879775287</v>
+        <v>5.180810670849972</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.711612919626951</v>
+        <v>2.326996009002246</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3229107961842683</v>
+        <v>0.3773755655037997</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8468581793560708</v>
+        <v>0.7063796536377481</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2384049391866418</v>
+        <v>0.1846163067745699</v>
       </c>
     </row>
     <row r="10">
@@ -780,7 +780,7 @@
         <v>-0.1709697655512307</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7089557629971177</v>
+        <v>0.7089557629971174</v>
       </c>
     </row>
     <row r="11">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9676223125542384</v>
+        <v>-1.145929831947855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2646105794260518</v>
+        <v>-0.2358959848753657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.074337292393412</v>
+        <v>-1.759185035297025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.304093049321253</v>
+        <v>-1.360284519157494</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.089117302868812</v>
+        <v>-1.146007341686705</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3070875684542451</v>
+        <v>-0.310000056280885</v>
       </c>
     </row>
     <row r="12">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.068729795386098</v>
+        <v>1.229127838134336</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.843633323755643</v>
+        <v>2.940195738123165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8509643916796218</v>
+        <v>0.8459872414564477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.592399246328634</v>
+        <v>1.421723503379116</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7876030813092528</v>
+        <v>0.672101334902549</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.661419756109605</v>
+        <v>1.742456670418608</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>-0.1695518021293136</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7030759319261324</v>
+        <v>0.7030759319261319</v>
       </c>
     </row>
     <row r="14">
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8692972386193492</v>
+        <v>-0.8362674144885516</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4204605992155607</v>
+        <v>-0.377191954760239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9156636588462059</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5960210644188281</v>
+        <v>-0.6290838360963716</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.728582203826537</v>
+        <v>-0.7647496016526115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2676329127954255</v>
+        <v>-0.2746935284838031</v>
       </c>
     </row>
     <row r="15">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.353993476350287</v>
+        <v>4.135346797782073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9.955474784970153</v>
+        <v>10.62473770081848</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.920184591173717</v>
+        <v>2.182816149975178</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.914948162226572</v>
+        <v>2.644421645600357</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.592910429774409</v>
+        <v>1.382428810433011</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.65465163847962</v>
+        <v>3.160063017547312</v>
       </c>
     </row>
     <row r="16">
@@ -934,7 +934,7 @@
         <v>1.976582205321211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8815014716665976</v>
+        <v>0.8815014716665972</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.8789900556296175</v>
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.671236396855298</v>
+        <v>-2.859196435330326</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.57701390622308</v>
+        <v>-2.497415752957387</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6508172513272046</v>
+        <v>-0.327107594010093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.142567350589512</v>
+        <v>-1.224442242601618</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8387871653386881</v>
+        <v>-0.7098281140681529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.010225320114494</v>
+        <v>-0.8710280502493941</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.607303375471976</v>
+        <v>1.794274823955857</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.905103723923935</v>
+        <v>2.031121814287303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.132042289225353</v>
+        <v>5.290739411279537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.812199805801788</v>
+        <v>2.461590730312438</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.758975133249985</v>
+        <v>2.709116601231881</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.88058539701276</v>
+        <v>1.712139430474837</v>
       </c>
     </row>
     <row r="19">
@@ -1012,7 +1012,7 @@
         <v>1.092297751472409</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4871348496555808</v>
+        <v>0.4871348496555806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4695852840857843</v>
@@ -1029,22 +1029,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8092512535264765</v>
+        <v>-0.8296360499501414</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7211998713678174</v>
+        <v>-0.7032643465833096</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3380881533485293</v>
+        <v>-0.2809800818104595</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4130190955213936</v>
+        <v>-0.4161381650106881</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3585582399460357</v>
+        <v>-0.3517191364168165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3955631618120107</v>
+        <v>-0.3241881153948999</v>
       </c>
     </row>
     <row r="21">
@@ -1055,22 +1055,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.390406931784874</v>
+        <v>3.062903718507951</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.125671053201896</v>
+        <v>2.986045858039566</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.547627519508433</v>
+        <v>7.173611335280648</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.242584330499654</v>
+        <v>3.057464064871406</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.524901042028949</v>
+        <v>2.483311356971575</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.980730059592081</v>
+        <v>1.530234836089567</v>
       </c>
     </row>
     <row r="22">
@@ -1094,13 +1094,13 @@
         <v>-0.09818339803847748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.09852617324458725</v>
+        <v>-0.0985261732445869</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.302349653594371</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.5355375380734529</v>
+        <v>0.5355375380734523</v>
       </c>
     </row>
     <row r="23">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.608337566045082</v>
+        <v>-0.5635055302143591</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3739640875815263</v>
+        <v>-0.460527843954469</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.713943526923324</v>
+        <v>-2.516925125799883</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.614446803955401</v>
+        <v>-2.692981559680104</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.255513214248317</v>
+        <v>-1.177926089299927</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9430162513563191</v>
+        <v>-0.8856509556404937</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.319846659670847</v>
+        <v>2.533904127006971</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.927665000223218</v>
+        <v>2.887232070236685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.554357672908036</v>
+        <v>2.364416906990303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.826490401017847</v>
+        <v>1.859361424608298</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.686151817255483</v>
+        <v>1.865672758838412</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.820016612334478</v>
+        <v>1.786864050769084</v>
       </c>
     </row>
     <row r="25">
@@ -1166,19 +1166,19 @@
         <v>0.8859016314681738</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.432660178744246</v>
+        <v>1.432660178744247</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.03280858438766035</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.03292312482423439</v>
+        <v>-0.03292312482423428</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.157397058653033</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2787899119081956</v>
+        <v>0.2787899119081953</v>
       </c>
     </row>
     <row r="26">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6420461064259001</v>
+        <v>-0.5919747739989636</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.536214732872398</v>
+        <v>-0.5425528424080474</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6476056728152796</v>
+        <v>-0.6374499257747571</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5427742983124461</v>
+        <v>-0.5799723200995415</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5152411517684112</v>
+        <v>-0.4715007426023458</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.372077737747057</v>
+        <v>-0.3222311302533326</v>
       </c>
     </row>
     <row r="27">
@@ -1214,25 +1214,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>9.125381689845755</v>
+        <v>9.490386233392922</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.428772756184784</v>
+        <v>1.36900201763889</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.090570324620632</v>
+        <v>1.077914894104737</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.300880999610411</v>
+        <v>1.553439492829984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.487078722389862</v>
+        <v>1.425914107531981</v>
       </c>
     </row>
     <row r="28">
@@ -1250,7 +1246,7 @@
         <v>-1.234332992944053</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.3247834335125408</v>
+        <v>-0.3247834335125405</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-1.274862384568465</v>
@@ -1273,22 +1269,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.711341571773744</v>
+        <v>-5.273156656765924</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.459281187345015</v>
+        <v>-3.993868011339662</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.319675205081065</v>
+        <v>-4.271547228832596</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.327170856218392</v>
+        <v>-1.135273250076586</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.458820962818133</v>
+        <v>-3.712840233260161</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.568332363579984</v>
+        <v>-1.585897050552746</v>
       </c>
     </row>
     <row r="30">
@@ -1299,22 +1295,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.263792745311086</v>
+        <v>1.185696370948148</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.141190516282657</v>
+        <v>2.143623808954512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4178849231445804</v>
+        <v>0.4214240809777116</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.642577421255177</v>
+        <v>3.815646016606202</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.465004160523864</v>
+        <v>0.2004155489959926</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.466642822401528</v>
+        <v>2.495078273733255</v>
       </c>
     </row>
     <row r="31">
@@ -1328,7 +1324,7 @@
         <v>-0.4770496187274728</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.125523512708357</v>
+        <v>-0.1255235127083568</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.7396995132557959</v>
@@ -1352,17 +1348,17 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.841434359604339</v>
+        <v>-0.7765062903303337</v>
       </c>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.5126849999215264</v>
+        <v>-0.4397991747657459</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9332634451559599</v>
+        <v>-0.9314358032831366</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4291154089284931</v>
+        <v>-0.44989367886664</v>
       </c>
     </row>
     <row r="33">
@@ -1374,17 +1370,17 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>2.869610547436428</v>
+        <v>2.933428257348853</v>
       </c>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>7.391262882972794</v>
+        <v>7.564122076842645</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8595010209540778</v>
+        <v>0.6423305389006226</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.560453862344578</v>
+        <v>2.417346176632797</v>
       </c>
     </row>
     <row r="34">
@@ -1402,7 +1398,7 @@
         <v>-1.25046661736728</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.312700728755443</v>
+        <v>1.312700728755442</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-0.6418703727500195</v>
@@ -1425,22 +1421,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.483025528637525</v>
+        <v>-3.225213991763275</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.998163123252879</v>
+        <v>-0.8797445708196503</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.214909299088036</v>
+        <v>-2.254378256048339</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.8987308916290231</v>
+        <v>-0.7913709003807865</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.141039452728324</v>
+        <v>-2.178541909688582</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2504697969822147</v>
+        <v>-0.1613156956796326</v>
       </c>
     </row>
     <row r="36">
@@ -1451,22 +1447,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1204013131488596</v>
+        <v>-0.06986372046658665</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.172053927161587</v>
+        <v>3.216877536581857</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.8370907603249376</v>
+        <v>0.6815922264576247</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.691042737348195</v>
+        <v>2.72014774457039</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.2290637092132139</v>
+        <v>0.09656020995548169</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.626078654510773</v>
+        <v>2.564435571117161</v>
       </c>
     </row>
     <row r="37">
@@ -1480,7 +1476,7 @@
         <v>-0.8058865076032606</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.8459944401012843</v>
+        <v>0.8459944401012841</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.5765654491097166</v>
@@ -1492,7 +1488,7 @@
         <v>-0.7085410763141332</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9015212909419454</v>
+        <v>0.9015212909419458</v>
       </c>
     </row>
     <row r="38">
@@ -1504,17 +1500,17 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.4042154158672111</v>
+        <v>-0.4397297165567219</v>
       </c>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.5324638890883349</v>
+        <v>-0.4900606428190946</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2274500329392541</v>
+        <v>-0.1526907539038957</v>
       </c>
     </row>
     <row r="39">
@@ -1526,17 +1522,17 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>6.828221003719502</v>
+        <v>6.145303900280446</v>
       </c>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>6.919180563137787</v>
+        <v>7.161631179590131</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.369840718571697</v>
+        <v>0.8157365858396044</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.814919672466418</v>
+        <v>3.671916151710781</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1550,7 @@
         <v>-0.03700184277072374</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.834146086800941</v>
+        <v>1.83414608680094</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-0.4532740950206942</v>
@@ -1577,22 +1573,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.9320180377713663</v>
+        <v>-1.067665935201263</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.6139432170330824</v>
+        <v>0.6638404633172407</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.148385823250238</v>
+        <v>-2.268499212090851</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.904418814126319</v>
+        <v>-3.018018156968703</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.362346543355275</v>
+        <v>-1.297417907729424</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.7754254058259753</v>
+        <v>-0.7593408616057821</v>
       </c>
     </row>
     <row r="42">
@@ -1603,22 +1599,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.8145105445030958</v>
+        <v>0.8602072526627529</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.28361690290399</v>
+        <v>3.22263255093478</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.520327431399066</v>
+        <v>1.267468649007802</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.2447842590015278</v>
+        <v>0.1676833894056196</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.6681422443553011</v>
+        <v>0.762991709012368</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.247380070025654</v>
+        <v>1.255302543110297</v>
       </c>
     </row>
     <row r="43">
@@ -1632,7 +1628,7 @@
         <v>-0.04939265427937899</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>2.4483468059843</v>
+        <v>2.448346805984299</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.1639581070743978</v>
@@ -1655,22 +1651,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8237702345013735</v>
+        <v>-0.8464401520243334</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.329690956362559</v>
+        <v>0.2653495675628837</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5772676596485491</v>
+        <v>-0.6096697418610258</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7132309681998609</v>
+        <v>-0.7365104737265072</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5783132885754637</v>
+        <v>-0.5644766280133831</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3195554382229545</v>
+        <v>-0.3304705561645606</v>
       </c>
     </row>
     <row r="45">
@@ -1681,22 +1677,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.351876632256184</v>
+        <v>3.163072995972401</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>10.86685010249977</v>
+        <v>12.82467654266508</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8692145989281024</v>
+        <v>0.6564132497542096</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1976001966876651</v>
+        <v>0.1328088576238708</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5684303636495807</v>
+        <v>0.5999252320909375</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9632047055248535</v>
+        <v>1.008269698690695</v>
       </c>
     </row>
     <row r="46">
@@ -1720,13 +1716,13 @@
         <v>0.5484885355720843</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1.47202234368422</v>
+        <v>1.472022343684221</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0.1599660564435151</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.288091688019771</v>
+        <v>1.288091688019772</v>
       </c>
     </row>
     <row r="47">
@@ -1737,22 +1733,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.243273943316998</v>
+        <v>-1.214551466782459</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.03968959841017145</v>
+        <v>-0.02438364286431549</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.7206906071200606</v>
+        <v>-0.7452220302446453</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.2850617853068174</v>
+        <v>0.1870197967419676</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.6721347753468168</v>
+        <v>-0.6409591278687186</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.5111625990781907</v>
+        <v>0.4024415169128717</v>
       </c>
     </row>
     <row r="48">
@@ -1763,22 +1759,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7907327141167934</v>
+        <v>0.6767409968519955</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.42276846181508</v>
+        <v>2.300348410337585</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.898861875758683</v>
+        <v>1.982733581024722</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.771190504250937</v>
+        <v>2.790121656438895</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.9673334263822315</v>
+        <v>0.9898655813169097</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.25925181031136</v>
+        <v>2.130360931915843</v>
       </c>
     </row>
     <row r="49">
@@ -1798,7 +1794,7 @@
         <v>0.3462615926414177</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.9292897992776061</v>
+        <v>0.9292897992776064</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1247773691269036</v>
@@ -1815,22 +1811,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8441855553094936</v>
+        <v>-0.8613151388427529</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1147433488650802</v>
+        <v>-0.1415223710742737</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3541070787699264</v>
+        <v>-0.3703084731432026</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1029506029945957</v>
+        <v>-0.02274448844712619</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4055529859832931</v>
+        <v>-0.411752735760113</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2635577513013728</v>
+        <v>0.2271834241133177</v>
       </c>
     </row>
     <row r="51">
@@ -1841,22 +1837,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.855259247296019</v>
+        <v>1.662824538015372</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>5.141601403218526</v>
+        <v>5.16490740959493</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.033761366340978</v>
+        <v>1.918392379996252</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2.91562981261567</v>
+        <v>2.845363107585373</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.113647461846347</v>
+        <v>1.172773567106661</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.676143707720996</v>
+        <v>2.495286318766849</v>
       </c>
     </row>
     <row r="52">
@@ -1874,7 +1870,7 @@
         <v>-0.2669243748262082</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.9707661894515114</v>
+        <v>0.9707661894515117</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>-0.007173207624061595</v>
@@ -1886,7 +1882,7 @@
         <v>-0.1328143749495903</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.6096894318136814</v>
+        <v>0.6096894318136811</v>
       </c>
     </row>
     <row r="53">
@@ -1897,22 +1893,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.7605871940061072</v>
+        <v>-0.8186783142708777</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.3640442662114592</v>
+        <v>0.393127129731125</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.6986357024551428</v>
+        <v>-0.6815336993135089</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.3986313238513639</v>
+        <v>-0.3907518063944755</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5474829819189899</v>
+        <v>-0.5873116396547324</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.1640388690930513</v>
+        <v>0.2132544767924798</v>
       </c>
     </row>
     <row r="54">
@@ -1923,22 +1919,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1846671001933828</v>
+        <v>0.2188619129206008</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.514220635158013</v>
+        <v>1.553091776497125</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.7437555015562839</v>
+        <v>0.6777156203444984</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.8499204325761111</v>
+        <v>0.9005113317183766</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.2983159492072279</v>
+        <v>0.3031115298596719</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.013785268364777</v>
+        <v>1.040206612415953</v>
       </c>
     </row>
     <row r="55">
@@ -1952,7 +1948,7 @@
         <v>-0.2335472986445458</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.8493784852337851</v>
+        <v>0.8493784852337855</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>-0.003560796993306976</v>
@@ -1964,7 +1960,7 @@
         <v>-0.08370406074618682</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3842466695055431</v>
+        <v>0.3842466695055429</v>
       </c>
     </row>
     <row r="56">
@@ -1975,22 +1971,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5295622086792395</v>
+        <v>-0.5632454469865869</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2371477737236752</v>
+        <v>0.2913103875661183</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2928575102643864</v>
+        <v>-0.2926377702702572</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1612471550964952</v>
+        <v>-0.1644035273516512</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3055668901027591</v>
+        <v>-0.3262893173678112</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.09059695524815913</v>
+        <v>0.1132815909750976</v>
       </c>
     </row>
     <row r="57">
@@ -2001,22 +1997,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2133567012649115</v>
+        <v>0.2748026518088352</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.765547234309042</v>
+        <v>1.84102522260434</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4543813553214511</v>
+        <v>0.4213495800017489</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5215140940099294</v>
+        <v>0.529024545638288</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.22469733354682</v>
+        <v>0.226163762618543</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.7537688837112264</v>
+        <v>0.773663716805271</v>
       </c>
     </row>
     <row r="58">
